--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA4F0E9-156C-41F6-8185-A303B367E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CF1F0-8869-43F8-AC8B-7204A798B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Target Penyelesaian</t>
+  </si>
+  <si>
+    <t>waiting</t>
   </si>
 </sst>
 </file>
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0939578-3EFB-466F-B4BC-E2CEB037E17C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +509,9 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -518,7 +523,9 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -530,7 +537,9 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -542,7 +551,9 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -554,7 +565,9 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -566,7 +579,9 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -578,7 +593,9 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -590,7 +607,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -602,7 +621,9 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -614,7 +635,9 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +694,9 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -685,7 +710,9 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -699,7 +726,9 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -713,7 +742,9 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -727,7 +758,9 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -741,7 +774,9 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -755,7 +790,9 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -769,7 +806,9 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -783,7 +822,9 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -797,7 +838,9 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CF1F0-8869-43F8-AC8B-7204A798B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643E0027-73D2-4321-91F8-764C1834C992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>waiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail </t>
+  </si>
+  <si>
+    <t>Model CNN 1</t>
+  </si>
+  <si>
+    <t>Model CNN 2</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>On Going</t>
   </si>
 </sst>
 </file>
@@ -122,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,11 +160,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,6 +198,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0939578-3EFB-466F-B4BC-E2CEB037E17C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,202 +701,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="2" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44493</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="E3" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44493</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643E0027-73D2-4321-91F8-764C1834C992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6DAD6-81EF-46AC-BF71-5EA8372CB0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>On Going</t>
+    <t>Detail</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,11 +186,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,16 +212,22 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,20 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0939578-3EFB-466F-B4BC-E2CEB037E17C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,153 +565,192 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -704,7 +761,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,10 +839,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -801,12 +858,12 @@
         <v>44494</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -820,7 +877,7 @@
         <v>44494</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6DAD6-81EF-46AC-BF71-5EA8372CB0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB52897-9DA8-425D-A7AA-0128AA626662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Job Desc" sheetId="1" r:id="rId1"/>
+    <sheet name="Job Desc Revisi" sheetId="4" r:id="rId1"/>
     <sheet name="Jadwal Pengerjaan" sheetId="2" r:id="rId2"/>
+    <sheet name="Job Desc" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -83,9 +84,6 @@
     <t>Muhammad Farhan Anwari</t>
   </si>
   <si>
-    <t>Target Mulai</t>
-  </si>
-  <si>
     <t>Target Penyelesaian</t>
   </si>
   <si>
@@ -104,14 +102,53 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Detail</t>
+    <t>Model CNN 3</t>
+  </si>
+  <si>
+    <t>Model CNN 4</t>
+  </si>
+  <si>
+    <t>Model CNN with TL 1</t>
+  </si>
+  <si>
+    <t>Model CNN with TL 2</t>
+  </si>
+  <si>
+    <t>Model CNN 5</t>
+  </si>
+  <si>
+    <t>Model CNN 6</t>
+  </si>
+  <si>
+    <t>Penyelesaian</t>
+  </si>
+  <si>
+    <t>Pembagian dataset: -Train : 70% dan Validation : 30%</t>
+  </si>
+  <si>
+    <t>Preprocessing Manual</t>
+  </si>
+  <si>
+    <t>Preprocessing dengan Image Data Generator</t>
+  </si>
+  <si>
+    <t>Pembagian dataset: -Train : 80% , Validation : 19%, Test : 1%</t>
+  </si>
+  <si>
+    <t>On Going</t>
+  </si>
+  <si>
+    <t>Mulai</t>
+  </si>
+  <si>
+    <t>All Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +163,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,20 +255,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,11 +595,944 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D89F2-D51C-4627-AE3E-6789CE625334}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44493</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44493</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44508</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44493</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44508</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44494</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44494</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44506</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>44508</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4">
+        <v>44508</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0939578-3EFB-466F-B4BC-E2CEB037E17C}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,193 +1544,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -754,256 +1642,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4">
-        <v>44491</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44493</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
-        <v>44491</v>
-      </c>
-      <c r="F3" s="4">
-        <v>44493</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44491</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44494</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
-        <v>44491</v>
-      </c>
-      <c r="F5" s="4">
-        <v>44494</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB52897-9DA8-425D-A7AA-0128AA626662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1531061-64B8-41BF-9CCB-E7ECD52042CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>All Model</t>
+  </si>
+  <si>
+    <t>Preprocessing dengan Image Data Generator dan Balancing Dataset</t>
   </si>
 </sst>
 </file>
@@ -258,20 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +271,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +608,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
@@ -627,14 +630,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -644,10 +647,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -657,14 +660,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -674,10 +677,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -686,13 +689,13 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -703,9 +706,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -716,9 +719,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -729,9 +732,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -742,9 +745,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -753,9 +756,9 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -764,9 +767,9 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -775,9 +778,9 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -792,7 +795,7 @@
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -809,7 +812,7 @@
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -826,7 +829,7 @@
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -843,7 +846,7 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
@@ -858,7 +861,7 @@
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
@@ -873,7 +876,7 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
@@ -911,10 +914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,13 +957,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -980,9 +983,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1000,13 +1003,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1024,9 +1027,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1039,267 +1042,321 @@
         <v>44508</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4">
-        <v>44491</v>
+        <v>44527</v>
       </c>
       <c r="F6" s="4">
-        <v>44494</v>
-      </c>
-      <c r="G6" s="4">
-        <v>44494</v>
-      </c>
+        <v>44528</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44540</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44541</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44494</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
         <v>44491</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="4">
         <v>44494</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G9" s="4">
         <v>44494</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
         <v>44506</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F10" s="4">
         <v>44509</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>44509</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44528</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44530</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44528</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44530</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44541</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44544</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44541</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44544</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>44508</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
         <v>44494</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>44494</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44494</v>
+      </c>
       <c r="F17" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
         <v>44509</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1"/>
       <c r="F18" s="4">
         <v>44509</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44509</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -1307,127 +1364,147 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="4">
-        <v>44508</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="4">
-        <v>44494</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11">
+        <v>5</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="4">
+        <v>44494</v>
+      </c>
       <c r="F24" s="4">
         <v>44494</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44494</v>
+      </c>
       <c r="F25" s="4">
+        <v>44494</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
         <v>44509</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1"/>
       <c r="F26" s="4">
         <v>44509</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44509</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44509</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -1435,16 +1512,16 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,13 +1533,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1474,15 +1549,17 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>8</v>
+      <c r="A32" s="7">
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1492,15 +1569,17 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>9</v>
+      <c r="A33" s="7">
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1509,18 +1588,58 @@
         <v>17</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,22 +1684,22 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1531061-64B8-41BF-9CCB-E7ECD52042CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE4DBE4-ABCE-44E5-A11D-E528B711FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -602,7 +602,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,7 +753,9 @@
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -764,7 +766,9 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -775,7 +779,9 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -786,7 +792,9 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -846,7 +854,9 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
@@ -861,7 +871,9 @@
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
@@ -876,7 +888,9 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
@@ -891,7 +905,9 @@
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
@@ -916,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,9 +1013,11 @@
       <c r="F3" s="4">
         <v>44508</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="4">
+        <v>44508</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1039,9 @@
       <c r="F4" s="4">
         <v>44493</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>44493</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1061,9 @@
       <c r="F5" s="4">
         <v>44508</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>44508</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1056,10 +1078,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="4">
+        <v>44526</v>
+      </c>
+      <c r="F6" s="4">
         <v>44527</v>
-      </c>
-      <c r="F6" s="4">
-        <v>44528</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
@@ -1149,9 +1171,11 @@
       <c r="F10" s="4">
         <v>44509</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>44509</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,13 +1187,17 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>44509</v>
+      </c>
       <c r="F11" s="4">
         <v>44509</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>44509</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1313,7 +1341,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1333,7 +1361,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1345,8 +1373,12 @@
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="4">
+        <v>44528</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44530</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>17</v>
@@ -1361,8 +1393,12 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="4">
+        <v>44528</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44530</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>17</v>
@@ -1377,8 +1413,12 @@
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="4">
+        <v>44541</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44544</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -1393,8 +1433,12 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="4">
+        <v>44541</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44544</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>17</v>
@@ -1493,8 +1537,12 @@
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4">
+        <v>44528</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44530</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
         <v>17</v>
@@ -1509,8 +1557,12 @@
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="4">
+        <v>44528</v>
+      </c>
+      <c r="F29" s="4">
+        <v>44530</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
         <v>17</v>
@@ -1525,8 +1577,12 @@
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="4">
+        <v>44541</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44544</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
         <v>17</v>
@@ -1541,8 +1597,12 @@
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="4">
+        <v>44541</v>
+      </c>
+      <c r="F31" s="4">
+        <v>44544</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
         <v>17</v>
@@ -1561,8 +1621,12 @@
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="4">
+        <v>44547</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44553</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>17</v>
@@ -1581,8 +1645,12 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="4">
+        <v>44547</v>
+      </c>
+      <c r="F33" s="4">
+        <v>44553</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>17</v>
@@ -1601,8 +1669,12 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="4">
+        <v>44547</v>
+      </c>
+      <c r="F34" s="4">
+        <v>44553</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>17</v>
@@ -1621,8 +1693,12 @@
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="4">
+        <v>44553</v>
+      </c>
+      <c r="F35" s="4">
+        <v>44553</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
         <v>17</v>
@@ -1630,16 +1706,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE4DBE4-ABCE-44E5-A11D-E528B711FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CC593-2591-411C-9F22-A90C6E2E3C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc Revisi" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Pembagian dataset: -Train : 80% , Validation : 19%, Test : 1%</t>
-  </si>
-  <si>
-    <t>On Going</t>
   </si>
   <si>
     <t>Mulai</t>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D89F2-D51C-4627-AE3E-6789CE625334}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,7 +683,9 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -754,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -821,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -838,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -855,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -872,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -889,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -906,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -932,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -1072,7 +1071,7 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1092,7 +1091,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -1215,9 +1214,11 @@
       <c r="F12" s="4">
         <v>44530</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>44533</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1299,7 +1300,9 @@
       <c r="F16" s="4">
         <v>44494</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>44494</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1322,9 @@
       <c r="F17" s="4">
         <v>44494</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>44494</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1344,9 @@
       <c r="F18" s="4">
         <v>44509</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>44509</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1359,7 +1366,9 @@
       <c r="F19" s="4">
         <v>44509</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="4">
+        <v>44509</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1379,9 +1388,11 @@
       <c r="F20" s="4">
         <v>44530</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="4">
+        <v>44533</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1463,7 +1474,9 @@
       <c r="F24" s="4">
         <v>44494</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="4">
+        <v>44494</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1483,7 +1496,9 @@
       <c r="F25" s="4">
         <v>44494</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="4">
+        <v>44494</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,9 +1518,11 @@
       <c r="F26" s="4">
         <v>44509</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="4">
+        <v>44509</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1523,9 +1540,11 @@
       <c r="F27" s="4">
         <v>44509</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="4">
+        <v>44509</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1543,9 +1562,11 @@
       <c r="F28" s="4">
         <v>44530</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="4">
+        <v>44533</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1616,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
@@ -1640,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -1664,7 +1685,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -1688,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CC593-2591-411C-9F22-A90C6E2E3C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C3D72-0367-4F4A-A7D2-3C75614184F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc Revisi" sheetId="4" r:id="rId1"/>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D89F2-D51C-4627-AE3E-6789CE625334}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C3D72-0367-4F4A-A7D2-3C75614184F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC53D193-A41D-430E-A28F-5F52E6FB2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC53D193-A41D-430E-A28F-5F52E6FB2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544DA42-91A6-4D94-85F0-A3319E5DFC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc Revisi" sheetId="4" r:id="rId1"/>
     <sheet name="Jadwal Pengerjaan" sheetId="2" r:id="rId2"/>
-    <sheet name="Job Desc" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Job Desc" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Model Evaluation</t>
   </si>
   <si>
-    <t>Prediksi Data</t>
-  </si>
-  <si>
     <t>Frontend Web</t>
   </si>
   <si>
@@ -108,12 +106,6 @@
     <t>Model CNN 4</t>
   </si>
   <si>
-    <t>Model CNN with TL 1</t>
-  </si>
-  <si>
-    <t>Model CNN with TL 2</t>
-  </si>
-  <si>
     <t>Model CNN 5</t>
   </si>
   <si>
@@ -142,6 +134,12 @@
   </si>
   <si>
     <t>Preprocessing dengan Image Data Generator dan Balancing Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model CNN with TL </t>
+  </si>
+  <si>
+    <t>Bersama</t>
   </si>
 </sst>
 </file>
@@ -245,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -281,6 +279,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D89F2-D51C-4627-AE3E-6789CE625334}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -635,26 +657,26 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,26 +687,26 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,105 +717,99 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
+      <c r="C12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -803,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -837,13 +853,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -854,13 +870,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -888,34 +904,20 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A5"/>
@@ -931,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="A1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,22 +955,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -979,10 +981,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4">
         <v>44491</v>
@@ -994,17 +996,17 @@
         <v>44493</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>44506</v>
@@ -1016,7 +1018,7 @@
         <v>44508</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4">
         <v>44491</v>
@@ -1042,17 +1044,17 @@
         <v>44493</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
         <v>44506</v>
@@ -1064,17 +1066,17 @@
         <v>44508</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>44526</v>
@@ -1082,19 +1084,21 @@
       <c r="F6" s="4">
         <v>44527</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>44528</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
         <v>44540</v>
@@ -1102,9 +1106,11 @@
       <c r="F7" s="4">
         <v>44541</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>44542</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1115,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
         <v>44491</v>
@@ -1130,17 +1136,17 @@
         <v>44494</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
         <v>44491</v>
@@ -1152,17 +1158,17 @@
         <v>44494</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4">
         <v>44506</v>
@@ -1174,17 +1180,17 @@
         <v>44509</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4">
         <v>44509</v>
@@ -1196,17 +1202,17 @@
         <v>44509</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>44528</v>
@@ -1218,17 +1224,17 @@
         <v>44533</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4">
         <v>44528</v>
@@ -1236,50 +1242,44 @@
       <c r="F13" s="4">
         <v>44530</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>44533</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="C14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16">
         <v>44541</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="16">
         <v>44544</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
+      <c r="G14" s="16">
+        <v>44554</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4">
-        <v>44541</v>
-      </c>
-      <c r="F15" s="4">
-        <v>44544</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
@@ -1289,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>44494</v>
@@ -1304,17 +1304,17 @@
         <v>44494</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4">
         <v>44494</v>
@@ -1326,17 +1326,17 @@
         <v>44494</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4">
         <v>44509</v>
@@ -1348,17 +1348,17 @@
         <v>44509</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="4">
         <v>44509</v>
@@ -1370,17 +1370,17 @@
         <v>44509</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4">
         <v>44528</v>
@@ -1392,17 +1392,17 @@
         <v>44533</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4">
         <v>44528</v>
@@ -1410,50 +1410,44 @@
       <c r="F21" s="4">
         <v>44530</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="4">
+        <v>44533</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16">
         <v>44541</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="16">
         <v>44544</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
+      <c r="G22" s="16">
+        <v>44554</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4">
-        <v>44541</v>
-      </c>
-      <c r="F23" s="4">
-        <v>44544</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
@@ -1463,10 +1457,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4">
         <v>44494</v>
@@ -1478,17 +1472,17 @@
         <v>44494</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4">
         <v>44494</v>
@@ -1500,17 +1494,17 @@
         <v>44494</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4">
         <v>44509</v>
@@ -1522,17 +1516,17 @@
         <v>44509</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="4">
         <v>44509</v>
@@ -1544,17 +1538,17 @@
         <v>44509</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4">
         <v>44528</v>
@@ -1566,17 +1560,17 @@
         <v>44533</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4">
         <v>44528</v>
@@ -1584,63 +1578,57 @@
       <c r="F29" s="4">
         <v>44530</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="4">
+        <v>44533</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="C30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16">
         <v>44541</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="16">
         <v>44544</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>17</v>
+      <c r="G30" s="16">
+        <v>44554</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="4">
-        <v>44541</v>
-      </c>
-      <c r="F31" s="4">
-        <v>44544</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4">
         <v>44547</v>
@@ -1650,7 +1638,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1658,13 +1646,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4">
         <v>44547</v>
@@ -1674,7 +1662,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1682,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="4">
         <v>44547</v>
@@ -1698,7 +1686,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1706,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4">
         <v>44553</v>
@@ -1722,11 +1710,29 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="28">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A8:A15"/>
@@ -1744,6 +1750,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE584D2-5914-441C-85B0-9307751E369B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0939578-3EFB-466F-B4BC-E2CEB037E17C}">
   <dimension ref="A1:E13"/>
   <sheetViews>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\ProjectML_145-157\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544DA42-91A6-4D94-85F0-A3319E5DFC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0A397E-E10F-40D3-8820-519D629F63F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc Revisi" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,6 +265,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,29 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D89F2-D51C-4627-AE3E-6789CE625334}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,10 +648,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -667,8 +665,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
@@ -680,10 +678,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -697,8 +695,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
@@ -710,10 +708,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -727,8 +725,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
@@ -740,8 +738,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
@@ -753,8 +751,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
@@ -766,8 +764,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
@@ -779,8 +777,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
@@ -792,24 +790,26 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -914,9 +914,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -933,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="A1:H35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,10 +973,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1000,8 +999,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1022,10 +1021,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1048,8 +1047,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1070,8 +1069,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1092,8 +1091,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1114,10 +1113,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1140,8 +1139,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1162,8 +1161,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1184,8 +1183,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1206,8 +1205,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,8 +1227,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1250,42 +1249,54 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20">
         <v>44541</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="20">
         <v>44544</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="20">
         <v>44554</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21">
+        <v>44541</v>
+      </c>
+      <c r="F15" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G15" s="21">
+        <v>44554</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1308,8 +1319,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1330,8 +1341,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1352,8 +1363,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1374,8 +1385,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1396,8 +1407,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,42 +1429,54 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20">
         <v>44541</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="20">
         <v>44544</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="20">
         <v>44554</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="20">
+        <v>44542</v>
+      </c>
+      <c r="F23" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G23" s="21">
+        <v>44554</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="15">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1476,8 +1499,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,8 +1521,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1520,8 +1543,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1542,8 +1565,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1564,8 +1587,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,36 +1609,48 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="20">
         <v>44541</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="20">
         <v>44544</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="20">
         <v>44554</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="20">
+        <v>44542</v>
+      </c>
+      <c r="F31" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G31" s="20">
+        <v>44554</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -1637,8 +1672,8 @@
         <v>44553</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
+      <c r="H32" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1714,25 +1749,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+  <mergeCells count="10">
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A8:A15"/>
@@ -1799,22 +1816,22 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\ML\Project\project\ProjectML_145-157\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0A397E-E10F-40D3-8820-519D629F63F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4394090-F441-40C0-BFBA-377A040E57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{C8B99E09-6D99-45AC-8E8E-DABE3584E49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Desc Revisi" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Target Penyelesaian</t>
-  </si>
-  <si>
-    <t>waiting</t>
   </si>
   <si>
     <t xml:space="preserve">Detail </t>
@@ -243,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,6 +262,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -292,15 +293,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D89F2-D51C-4627-AE3E-6789CE625334}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -648,168 +649,168 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>20</v>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -819,13 +820,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,13 +837,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -887,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -904,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4827C9D-A4BA-405D-A961-5C810548DB2B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,33 +955,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -994,15 +995,15 @@
       <c r="G2" s="4">
         <v>44493</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
+      <c r="H2" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1016,19 +1017,19 @@
       <c r="G3" s="4">
         <v>44508</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
+      <c r="H3" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1042,15 +1043,15 @@
       <c r="G4" s="4">
         <v>44493</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
+      <c r="H4" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1064,15 +1065,15 @@
       <c r="G5" s="4">
         <v>44508</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -1086,15 +1087,15 @@
       <c r="G6" s="4">
         <v>44528</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
+      <c r="H6" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -1108,19 +1109,19 @@
       <c r="G7" s="4">
         <v>44542</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
+      <c r="H7" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1135,14 +1136,14 @@
         <v>44494</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -1157,14 +1158,14 @@
         <v>44494</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -1179,14 +1180,14 @@
         <v>44509</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1201,14 +1202,14 @@
         <v>44509</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -1223,14 +1224,14 @@
         <v>44533</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1245,62 +1246,60 @@
         <v>44533</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11">
         <v>44541</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="11">
         <v>44544</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="11">
         <v>44554</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>20</v>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12">
         <v>44541</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="12">
         <v>44544</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="12">
         <v>44554</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>20</v>
+      <c r="H15" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="17">
         <v>4</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -1315,14 +1314,14 @@
         <v>44494</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -1337,14 +1336,14 @@
         <v>44494</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -1359,14 +1358,14 @@
         <v>44509</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1381,14 +1380,14 @@
         <v>44509</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -1403,14 +1402,14 @@
         <v>44533</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1425,62 +1424,60 @@
         <v>44533</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="11">
         <v>44541</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="11">
         <v>44544</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="11">
         <v>44554</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>20</v>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11">
         <v>44542</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="12">
         <v>44544</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="12">
         <v>44554</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>20</v>
+      <c r="H23" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="19">
         <v>5</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -1495,14 +1492,14 @@
         <v>44494</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1517,14 +1514,14 @@
         <v>44494</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1539,14 +1536,14 @@
         <v>44509</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1561,14 +1558,14 @@
         <v>44509</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -1583,14 +1580,14 @@
         <v>44533</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -1605,51 +1602,49 @@
         <v>44533</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="11">
         <v>44541</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="11">
         <v>44544</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="11">
         <v>44554</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>20</v>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="20">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="11">
         <v>44542</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="12">
         <v>44544</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="11">
         <v>44554</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>20</v>
+      <c r="H31" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1660,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -1671,9 +1666,11 @@
       <c r="F32" s="4">
         <v>44553</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="18" t="s">
-        <v>20</v>
+      <c r="G32" s="4">
+        <v>44563</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1684,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -1695,9 +1692,11 @@
       <c r="F33" s="4">
         <v>44553</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
+      <c r="G33" s="4">
+        <v>44563</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1708,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -1719,9 +1718,11 @@
       <c r="F34" s="4">
         <v>44553</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
+      <c r="G34" s="4">
+        <v>44563</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1732,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -1743,13 +1744,18 @@
       <c r="F35" s="4">
         <v>44553</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
+      <c r="G35" s="4">
+        <v>44563</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A8:A15"/>
@@ -1816,22 +1822,22 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
